--- a/map/bali-inner.xlsx
+++ b/map/bali-inner.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\kuliah\grafika-komputer\Grafika-UTS\map\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="987"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="833"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="4">
   <si>
     <t>O</t>
   </si>
@@ -41,7 +31,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -89,9 +79,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -386,7 +373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,18 +381,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AMK133"/>
+  <dimension ref="A1:AMK133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="FH109" sqref="FH109"/>
+    <sheetView tabSelected="1" topLeftCell="DB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="FG44" sqref="FG44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="2.5703125" style="1"/>
+    <col min="1" max="1025" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>105</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>106</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>107</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>108</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>109</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>110</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>111</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>112</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>113</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>114</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>115</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>116</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>118</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>119</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>120</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>121</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>122</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>123</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>124</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>125</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>126</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>127</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>128</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>129</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>130</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>131</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>132</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>133</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>134</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>135</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>136</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>137</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>138</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>139</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>140</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>141</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>142</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>143</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>144</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>145</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>146</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>147</v>
+      </c>
+      <c r="ES1" s="1">
+        <v>148</v>
+      </c>
+      <c r="ET1" s="1">
+        <v>149</v>
+      </c>
+      <c r="EU1" s="1">
+        <v>150</v>
+      </c>
+      <c r="EV1" s="1">
+        <v>151</v>
+      </c>
+      <c r="EW1" s="1">
+        <v>152</v>
+      </c>
+      <c r="EX1" s="1">
+        <v>153</v>
+      </c>
+      <c r="EY1" s="1">
+        <v>154</v>
+      </c>
+      <c r="EZ1" s="1">
+        <v>155</v>
+      </c>
+      <c r="FA1" s="1">
+        <v>156</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>157</v>
+      </c>
+      <c r="FC1" s="1">
+        <v>158</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>159</v>
+      </c>
+      <c r="FE1" s="1">
+        <v>160</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>161</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>162</v>
+      </c>
+      <c r="FH1" s="1">
+        <v>163</v>
+      </c>
+      <c r="FI1" s="1">
+        <v>164</v>
+      </c>
+      <c r="FJ1" s="1">
+        <v>165</v>
+      </c>
+      <c r="FK1" s="1">
+        <v>166</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>167</v>
+      </c>
+      <c r="FM1" s="1">
+        <v>168</v>
+      </c>
+      <c r="FN1" s="1">
+        <v>169</v>
+      </c>
+      <c r="FO1" s="1">
+        <v>170</v>
+      </c>
+      <c r="FP1" s="1">
+        <v>171</v>
+      </c>
+      <c r="FQ1" s="1">
+        <v>172</v>
+      </c>
+      <c r="FR1" s="1">
+        <v>173</v>
+      </c>
+      <c r="FS1" s="1">
+        <v>174</v>
+      </c>
+      <c r="FT1" s="1">
+        <v>175</v>
+      </c>
+      <c r="FU1" s="1">
+        <v>176</v>
+      </c>
+      <c r="FV1" s="1">
+        <v>177</v>
+      </c>
+      <c r="FW1" s="1">
+        <v>178</v>
+      </c>
+      <c r="FX1" s="1">
+        <v>179</v>
+      </c>
+      <c r="FY1" s="1">
+        <v>180</v>
+      </c>
+      <c r="FZ1" s="1">
+        <v>181</v>
+      </c>
+      <c r="GA1" s="1">
+        <v>182</v>
+      </c>
+      <c r="GB1" s="1">
+        <v>183</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>184</v>
+      </c>
+      <c r="GD1" s="1">
+        <v>185</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>186</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>187</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>188</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>189</v>
+      </c>
+      <c r="GI1" s="1">
+        <v>190</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="DI6" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +1014,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
       <c r="DH7" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +1025,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="DF8" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,7 +1042,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="DD9" s="1" t="s">
         <v>1</v>
       </c>
@@ -473,7 +1071,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
       <c r="DC10" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,7 +1085,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="DB11" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,7 +1096,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="DA12" s="1" t="s">
         <v>1</v>
       </c>
@@ -512,7 +1119,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
       <c r="S13" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +1148,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
       <c r="R14" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +1171,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
       <c r="J15" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +1218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="9:143" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:192" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +1241,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +1273,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>1</v>
       </c>
@@ -689,7 +1314,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>1</v>
       </c>
@@ -712,13 +1340,13 @@
         <v>1</v>
       </c>
       <c r="DR19" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY19" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ19" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ET19" s="1" t="s">
         <v>1</v>
@@ -730,7 +1358,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
       <c r="J20" s="1" t="s">
         <v>1</v>
       </c>
@@ -759,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="DQ20" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA20" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EW20" s="1" t="s">
         <v>1</v>
@@ -771,7 +1402,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
       <c r="J21" s="1" t="s">
         <v>1</v>
       </c>
@@ -815,7 +1449,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
       <c r="J22" s="1" t="s">
         <v>1</v>
       </c>
@@ -853,13 +1490,16 @@
         <v>1</v>
       </c>
       <c r="ED22" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
       <c r="J23" s="1" t="s">
         <v>1</v>
       </c>
@@ -876,19 +1516,22 @@
         <v>1</v>
       </c>
       <c r="DO23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF23" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
       <c r="J24" s="1" t="s">
         <v>1</v>
       </c>
@@ -911,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="DM24" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN24" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG24" s="1" t="s">
         <v>1</v>
@@ -947,7 +1590,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
       <c r="BB25" s="1" t="s">
         <v>1</v>
       </c>
@@ -970,22 +1616,25 @@
         <v>1</v>
       </c>
       <c r="DK25" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL25" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN25" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EO25" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
       <c r="I26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1020,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="DI26" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ26" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG26" s="1" t="s">
         <v>1</v>
@@ -1044,16 +1693,19 @@
         <v>1</v>
       </c>
       <c r="EP26" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ26" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF26" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="AL27" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN27" s="1" t="s">
         <v>1</v>
@@ -1181,7 +1833,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>0</v>
       </c>
@@ -1194,11 +1849,8 @@
       <c r="AI28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AL28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>1</v>
+      <c r="AK28" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="AO28" s="1" t="s">
         <v>1</v>
@@ -1207,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="AV28" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="1" t="s">
         <v>1</v>
@@ -1258,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="ET28" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FG28" s="1" t="s">
         <v>1</v>
@@ -1267,7 +1919,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>1</v>
       </c>
@@ -1278,10 +1933,10 @@
         <v>1</v>
       </c>
       <c r="AL29" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM29" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO29" s="1" t="s">
         <v>0</v>
@@ -1290,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP29" s="1" t="s">
         <v>0</v>
@@ -1329,21 +1984,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
       <c r="J30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AG30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AK30" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="AL30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AM30" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO30" s="1" t="s">
         <v>1</v>
@@ -1358,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="AX30" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN30" s="1" t="s">
         <v>1</v>
@@ -1397,7 +2052,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
       <c r="J31" s="1" t="s">
         <v>1</v>
       </c>
@@ -1411,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="1" t="s">
         <v>1</v>
@@ -1429,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="CM31" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO31" s="1" t="s">
         <v>1</v>
@@ -1465,7 +2123,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="8:170" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:170" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
       <c r="J32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1500,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="BA32" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL32" s="1" t="s">
         <v>1</v>
@@ -1539,7 +2200,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
       <c r="J33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1562,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="BB33" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL33" s="1" t="s">
         <v>0</v>
@@ -1592,7 +2256,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
       <c r="K34" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI34" s="1" t="s">
         <v>1</v>
@@ -1666,7 +2333,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
       <c r="K35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="BD35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="1" t="s">
         <v>1</v>
@@ -1701,7 +2371,7 @@
         <v>1</v>
       </c>
       <c r="CM35" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV35" s="1" t="s">
         <v>0</v>
@@ -1716,7 +2386,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
       <c r="L36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1760,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="CN36" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV36" s="1" t="s">
         <v>0</v>
@@ -1775,7 +2448,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
       <c r="M37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="CO37" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV37" s="1" t="s">
         <v>1</v>
@@ -1852,7 +2528,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1920,7 +2599,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
       <c r="N39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +2670,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
       <c r="P40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +2753,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
       <c r="P41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2791,7 @@
         <v>1</v>
       </c>
       <c r="CO41" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX41" s="1" t="s">
         <v>1</v>
@@ -2130,7 +2818,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
       <c r="P42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2144,10 +2835,10 @@
         <v>1</v>
       </c>
       <c r="CC42" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN42" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX42" s="1" t="s">
         <v>1</v>
@@ -2171,7 +2862,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
       <c r="P43" s="1" t="s">
         <v>1</v>
       </c>
@@ -2218,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="CD43" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL43" s="1" t="s">
         <v>1</v>
@@ -2245,13 +2939,16 @@
         <v>0</v>
       </c>
       <c r="FF43" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FW43" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
       <c r="Q44" s="1" t="s">
         <v>1</v>
       </c>
@@ -2334,7 +3031,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
       <c r="R45" s="1" t="s">
         <v>1</v>
       </c>
@@ -2399,7 +3099,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
       <c r="S46" s="1" t="s">
         <v>1</v>
       </c>
@@ -2446,7 +3149,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
       <c r="T47" s="1" t="s">
         <v>1</v>
       </c>
@@ -2493,7 +3199,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="10:183" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:183" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
       <c r="U48" s="1" t="s">
         <v>1</v>
       </c>
@@ -2534,7 +3243,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
       <c r="V49" s="1" t="s">
         <v>1</v>
       </c>
@@ -2575,7 +3287,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
       <c r="V50" s="1" t="s">
         <v>1</v>
       </c>
@@ -2616,7 +3331,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
       <c r="V51" s="1" t="s">
         <v>1</v>
       </c>
@@ -2651,7 +3369,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
       <c r="W52" s="1" t="s">
         <v>1</v>
       </c>
@@ -2692,7 +3413,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
       <c r="X53" s="1" t="s">
         <v>1</v>
       </c>
@@ -2742,7 +3466,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
       <c r="X54" s="1" t="s">
         <v>1</v>
       </c>
@@ -2786,7 +3513,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
       <c r="Y55" s="1" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +3551,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
       <c r="Z56" s="1" t="s">
         <v>1</v>
       </c>
@@ -2877,7 +3610,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
       <c r="AA57" s="1" t="s">
         <v>1</v>
       </c>
@@ -2927,7 +3663,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
       <c r="AB58" s="1" t="s">
         <v>1</v>
       </c>
@@ -2980,7 +3719,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
       <c r="AC59" s="1" t="s">
         <v>1</v>
       </c>
@@ -3027,7 +3769,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
       <c r="AD60" s="1" t="s">
         <v>1</v>
       </c>
@@ -3095,7 +3840,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
       <c r="AE61" s="1" t="s">
         <v>1</v>
       </c>
@@ -3172,7 +3920,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
       <c r="AE62" s="1" t="s">
         <v>1</v>
       </c>
@@ -3213,7 +3964,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
       <c r="AE63" s="1" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +4026,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="22:193" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:193" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
       <c r="AF64" s="1" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +4079,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
       <c r="BK65" s="1" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +4117,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
       <c r="BL66" s="1" t="s">
         <v>0</v>
       </c>
@@ -3371,7 +4134,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
       <c r="BM67" s="1" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +4154,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
       <c r="BN68" s="1" t="s">
         <v>0</v>
       </c>
@@ -3414,7 +4183,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
       <c r="BS69" s="1" t="s">
         <v>1</v>
       </c>
@@ -3431,7 +4203,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
       <c r="BU70" s="1" t="s">
         <v>1</v>
       </c>
@@ -3445,7 +4220,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
       <c r="BX71" s="1" t="s">
         <v>1</v>
       </c>
@@ -3456,7 +4234,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
       <c r="BZ72" s="1" t="s">
         <v>1</v>
       </c>
@@ -3467,7 +4248,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
       <c r="CB73" s="1" t="s">
         <v>1</v>
       </c>
@@ -3478,7 +4262,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
       <c r="CD74" s="1" t="s">
         <v>1</v>
       </c>
@@ -3489,7 +4276,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
       <c r="CF75" s="1" t="s">
         <v>1</v>
       </c>
@@ -3497,7 +4287,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
       <c r="CG76" s="1" t="s">
         <v>1</v>
       </c>
@@ -3505,7 +4298,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
       <c r="CH77" s="1" t="s">
         <v>1</v>
       </c>
@@ -3540,7 +4336,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
       <c r="CI78" s="1" t="s">
         <v>1</v>
       </c>
@@ -3557,7 +4356,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
       <c r="CJ79" s="1" t="s">
         <v>1</v>
       </c>
@@ -3568,7 +4370,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="63:189" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:189" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
       <c r="CK80" s="1" t="s">
         <v>1</v>
       </c>
@@ -3576,7 +4381,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
       <c r="CL81" s="1" t="s">
         <v>1</v>
       </c>
@@ -3584,7 +4392,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
       <c r="CM82" s="1" t="s">
         <v>1</v>
       </c>
@@ -3592,7 +4403,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
       <c r="CN83" s="1" t="s">
         <v>1</v>
       </c>
@@ -3609,7 +4423,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
       <c r="CO84" s="1" t="s">
         <v>1</v>
       </c>
@@ -3620,7 +4437,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
       <c r="CP85" s="1" t="s">
         <v>1</v>
       </c>
@@ -3628,7 +4448,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
       <c r="CQ86" s="1" t="s">
         <v>1</v>
       </c>
@@ -3636,7 +4459,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
       <c r="CR87" s="1" t="s">
         <v>1</v>
       </c>
@@ -3656,7 +4482,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
       <c r="CT88" s="1" t="s">
         <v>1</v>
       </c>
@@ -3670,7 +4499,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
       <c r="CU89" s="1" t="s">
         <v>1</v>
       </c>
@@ -3696,7 +4528,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
       <c r="CV90" s="1" t="s">
         <v>1</v>
       </c>
@@ -3704,7 +4539,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
       <c r="CW91" s="1" t="s">
         <v>1</v>
       </c>
@@ -3712,7 +4550,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
       <c r="CX92" s="1" t="s">
         <v>1</v>
       </c>
@@ -3720,7 +4561,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
       <c r="CY93" s="1" t="s">
         <v>1</v>
       </c>
@@ -3728,7 +4572,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
       <c r="CY94" s="1" t="s">
         <v>1</v>
       </c>
@@ -3736,7 +4583,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
       <c r="CY95" s="1" t="s">
         <v>0</v>
       </c>
@@ -3744,7 +4594,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="90:165" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:165" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
       <c r="CZ96" s="1" t="s">
         <v>0</v>
       </c>
@@ -3752,7 +4605,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
       <c r="CZ97" s="1" t="s">
         <v>1</v>
       </c>
@@ -3760,7 +4616,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
       <c r="DA98" s="1" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +4627,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
       <c r="DB99" s="1" t="s">
         <v>0</v>
       </c>
@@ -3776,7 +4638,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
       <c r="DC100" s="1" t="s">
         <v>0</v>
       </c>
@@ -3784,7 +4649,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
       <c r="DC101" s="1" t="s">
         <v>1</v>
       </c>
@@ -3792,7 +4660,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
       <c r="DD102" s="1" t="s">
         <v>1</v>
       </c>
@@ -3812,7 +4683,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
       <c r="DG103" s="1" t="s">
         <v>1</v>
       </c>
@@ -3829,7 +4703,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
       <c r="DH104" s="1" t="s">
         <v>1</v>
       </c>
@@ -3876,7 +4753,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
       <c r="DI105" s="1" t="s">
         <v>1</v>
       </c>
@@ -3902,7 +4782,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
       <c r="DI106" s="1" t="s">
         <v>1</v>
       </c>
@@ -3922,7 +4805,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
       <c r="DJ107" s="1" t="s">
         <v>1</v>
       </c>
@@ -3954,7 +4840,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
       <c r="DK108" s="1" t="s">
         <v>0</v>
       </c>
@@ -3974,7 +4863,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
       <c r="DK109" s="1" t="s">
         <v>0</v>
       </c>
@@ -3994,7 +4886,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
       <c r="DL110" s="1" t="s">
         <v>0</v>
       </c>
@@ -4017,7 +4912,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
       <c r="DL111" s="1" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4935,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="104:178" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:178" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
       <c r="DL112" s="1" t="s">
         <v>0</v>
       </c>
@@ -4051,7 +4952,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
       <c r="DL113" s="1" t="s">
         <v>0</v>
       </c>
@@ -4083,7 +4987,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
       <c r="DK114" s="1" t="s">
         <v>0</v>
       </c>
@@ -4103,7 +5010,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
       <c r="DK115" s="1" t="s">
         <v>0</v>
       </c>
@@ -4123,7 +5033,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
       <c r="DK116" s="1" t="s">
         <v>0</v>
       </c>
@@ -4149,7 +5062,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
       <c r="DK117" s="1" t="s">
         <v>0</v>
       </c>
@@ -4166,7 +5082,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
       <c r="DL118" s="1" t="s">
         <v>0</v>
       </c>
@@ -4186,7 +5105,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
       <c r="DL119" s="1" t="s">
         <v>0</v>
       </c>
@@ -4206,7 +5128,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
       <c r="DL120" s="1" t="s">
         <v>0</v>
       </c>
@@ -4232,7 +5157,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
       <c r="DL121" s="1" t="s">
         <v>0</v>
       </c>
@@ -4252,7 +5180,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
       <c r="DI122" s="1" t="s">
         <v>1</v>
       </c>
@@ -4287,7 +5218,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
       <c r="DG123" s="1" t="s">
         <v>1</v>
       </c>
@@ -4310,7 +5244,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
       <c r="DF124" s="1" t="s">
         <v>1</v>
       </c>
@@ -4333,7 +5270,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
       <c r="DE125" s="1" t="s">
         <v>1</v>
       </c>
@@ -4347,7 +5287,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
       <c r="DD126" s="1" t="s">
         <v>1</v>
       </c>
@@ -4367,7 +5310,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
       <c r="DB127" s="1" t="s">
         <v>0</v>
       </c>
@@ -4381,7 +5327,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="105:182" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:182" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
       <c r="DA128" s="1" t="s">
         <v>0</v>
       </c>
@@ -4389,7 +5338,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="104:124" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:124" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
       <c r="CZ129" s="1" t="s">
         <v>0</v>
       </c>
@@ -4397,7 +5349,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="104:124" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:124" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
       <c r="CZ130" s="1" t="s">
         <v>0</v>
       </c>
@@ -4405,7 +5360,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="104:124" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:124" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
       <c r="DA131" s="1" t="s">
         <v>0</v>
       </c>
@@ -4416,7 +5374,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="104:124" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:124" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
       <c r="DB132" s="1" t="s">
         <v>0</v>
       </c>
@@ -4427,7 +5388,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="104:124" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:124" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
       <c r="DC133" s="1" t="s">
         <v>0</v>
       </c>
@@ -4470,7 +5434,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/map/bali-inner.xlsx
+++ b/map/bali-inner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="3">
   <si>
     <t>O</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
 </sst>
 </file>
@@ -383,9 +380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="FG44" sqref="FG44"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BW53" sqref="BW53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3483,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="CG54" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK54" s="1" t="s">
         <v>1</v>
@@ -3530,10 +3527,10 @@
         <v>0</v>
       </c>
       <c r="CF55" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ55" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS55" s="1" t="s">
         <v>1</v>
@@ -3565,22 +3562,22 @@
         <v>1</v>
       </c>
       <c r="BW56" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CI56" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG56" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DH56" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DI56" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DJ56" s="1" t="s">
         <v>1</v>
@@ -3592,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="DT56" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU56" s="1" t="s">
         <v>1</v>
@@ -3627,13 +3624,13 @@
         <v>1</v>
       </c>
       <c r="DF57" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DL57" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DM57" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN57" s="1" t="s">
         <v>0</v>
@@ -3683,13 +3680,13 @@
         <v>1</v>
       </c>
       <c r="CO58" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DE58" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DW58" s="1" t="s">
         <v>0</v>
@@ -3736,19 +3733,19 @@
         <v>0</v>
       </c>
       <c r="CM59" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ59" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB59" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DC59" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DD59" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DX59" s="1" t="s">
         <v>0</v>
@@ -3763,7 +3760,7 @@
         <v>1</v>
       </c>
       <c r="FP59" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GJ59" s="1" t="s">
         <v>0</v>
@@ -3786,52 +3783,52 @@
         <v>0</v>
       </c>
       <c r="CM60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CS60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA60" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DY60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DZ60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="EE60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FO60" s="1" t="s">
         <v>0</v>
@@ -3848,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="BY61" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ61" s="1" t="s">
         <v>0</v>
@@ -3857,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="CB61" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF61" s="1" t="s">
         <v>0</v>
@@ -3943,9 +3940,6 @@
         <v>0</v>
       </c>
       <c r="CE62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF62" s="1" t="s">
         <v>1</v>
       </c>
       <c r="EM62" s="1" t="s">
@@ -4073,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="FK64" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GH64" s="1" t="s">
         <v>0</v>

--- a/map/bali-inner.xlsx
+++ b/map/bali-inner.xlsx
@@ -380,9 +380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BW53" sqref="BW53"/>
+      <selection pane="bottomLeft" activeCell="BR56" sqref="BR56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="BW48" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ48" s="1" t="s">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="BV49" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ49" s="1" t="s">
         <v>1</v>
@@ -3295,10 +3295,10 @@
         <v>1</v>
       </c>
       <c r="BV50" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY50" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU50" s="1" t="s">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="BX51" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU51" s="1" t="s">
         <v>1</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BX52" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV52" s="1" t="s">
         <v>1</v>
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="BT54" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW54" s="1" t="s">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="BT55" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW55" s="1" t="s">
         <v>0</v>
